--- a/福山Cコース.xlsx
+++ b/福山Cコース.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -131,6 +131,29 @@
   <si>
     <t>一貫楼</t>
   </si>
+  <si>
+    <t>8月9日(土), 8月10日(日), 8月11日(月), 8月16日(土), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>8月13日(水), 8月14日(木)</t>
+  </si>
+  <si>
+    <t>上記期間は無休</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月13日(水), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>8月11日(月), 上記期間は無休</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -166,8 +189,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +207,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -187,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,9 +257,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -260,7 +295,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="6">
+  <tableStyles count="11">
     <tableStyle count="2" pivot="0" name="月曜日-style">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
@@ -284,6 +319,26 @@
     <tableStyle count="2" pivot="0" name="全件-style">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 2">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 3">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 4">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 5">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 6">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -321,6 +376,30 @@
     <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="月曜日-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C14:F18" displayName="Table_10" name="Table_10" id="10">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C20:F23" displayName="Table_11" name="Table_11" id="11">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -369,13 +448,50 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:E4" displayName="Table_6" name="Table_6" id="6">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:F6" displayName="Table_6" name="Table_6" id="6">
+  <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
   </tableColumns>
   <tableStyleInfo name="全件-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C7:F8" displayName="Table_7" name="Table_7" id="7">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C9:F10" displayName="Table_8" name="Table_8" id="8">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C12:F12" displayName="Table_9" name="Table_9" id="9">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1165,7 +1281,7 @@
       </c>
       <c r="D3" s="5" t="str">
         <f>VLOOKUP($B3,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月9日(土), 8月10日(日), 8月11日(月), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP($B3,'全件'!$A:$E,4,false)</f>
@@ -1211,7 +1327,7 @@
       </c>
       <c r="D5" s="5" t="str">
         <f>VLOOKUP($B5,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月13日(水), 8月14日(木)</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP($B5,'全件'!$A:$E,4,false)</f>
@@ -1234,7 +1350,7 @@
       </c>
       <c r="D6" s="5" t="str">
         <f>VLOOKUP($B6,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP($B6,'全件'!$A:$E,4,false)</f>
@@ -1257,7 +1373,7 @@
       </c>
       <c r="D7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,4,false)</f>
@@ -1265,7 +1381,8 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>
+</v>
       </c>
     </row>
     <row r="8">
@@ -1280,7 +1397,7 @@
       </c>
       <c r="D8" s="5" t="str">
         <f>VLOOKUP($B8,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月13日(水), 8月17日(日)</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP($B8,'全件'!$A:$E,4,false)</f>
@@ -1303,7 +1420,7 @@
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,4,false)</f>
@@ -1326,7 +1443,7 @@
       </c>
       <c r="D10" s="5" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月), 上記期間は無休</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,4,false)</f>
@@ -1372,7 +1489,7 @@
       </c>
       <c r="D12" s="5" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,4,false)</f>
@@ -1418,7 +1535,7 @@
       </c>
       <c r="D14" s="5" t="str">
         <f>VLOOKUP($B14,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP($B14,'全件'!$A:$E,4,false)</f>
@@ -1441,7 +1558,7 @@
       </c>
       <c r="D15" s="5" t="str">
         <f>VLOOKUP($B15,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP($B15,'全件'!$A:$E,4,false)</f>
@@ -1464,7 +1581,7 @@
       </c>
       <c r="D16" s="5" t="str">
         <f>VLOOKUP($B16,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP($B16,'全件'!$A:$E,4,false)</f>
@@ -1487,7 +1604,7 @@
       </c>
       <c r="D17" s="5" t="str">
         <f>VLOOKUP($B17,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP($B17,'全件'!$A:$E,4,false)</f>
@@ -1510,7 +1627,7 @@
       </c>
       <c r="D18" s="5" t="str">
         <f>VLOOKUP($B18,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP($B18,'全件'!$A:$E,4,false)</f>
@@ -1556,7 +1673,7 @@
       </c>
       <c r="D20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,4,false)</f>
@@ -1579,7 +1696,7 @@
       </c>
       <c r="D21" s="5" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,4,false)</f>
@@ -1602,7 +1719,7 @@
       </c>
       <c r="D22" s="5" t="str">
         <f>VLOOKUP($B22,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP($B22,'全件'!$A:$E,4,false)</f>
@@ -1625,7 +1742,7 @@
       </c>
       <c r="D23" s="5" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,4,false)</f>
@@ -1949,7 +2066,7 @@
       </c>
       <c r="D3" s="5" t="str">
         <f>VLOOKUP($B3,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP($B3,'全件'!$A:$E,4,false)</f>
@@ -1957,7 +2074,8 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>VLOOKUP($B3,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>
+</v>
       </c>
     </row>
     <row r="4">
@@ -2923,7 +3041,7 @@
       </c>
       <c r="D2" s="5" t="str">
         <f>VLOOKUP($B2,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>VLOOKUP($B2,'全件'!$A:$E,4,false)</f>
@@ -2931,7 +3049,8 @@
       </c>
       <c r="F2" s="5" t="str">
         <f>VLOOKUP($B2,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>
+</v>
       </c>
     </row>
     <row r="3">
@@ -2969,7 +3088,7 @@
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月13日(水), 8月14日(木)</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,4,false)</f>
@@ -3015,7 +3134,7 @@
       </c>
       <c r="D6" s="5" t="str">
         <f>VLOOKUP($B6,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月13日(水), 8月17日(日)</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP($B6,'全件'!$A:$E,4,false)</f>
@@ -3038,7 +3157,7 @@
       </c>
       <c r="D7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,4,false)</f>
@@ -3084,7 +3203,7 @@
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月), 上記期間は無休</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,4,false)</f>
@@ -3176,7 +3295,7 @@
       </c>
       <c r="D13" s="5" t="str">
         <f>VLOOKUP($B13,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP($B13,'全件'!$A:$E,4,false)</f>
@@ -3199,7 +3318,7 @@
       </c>
       <c r="D14" s="5" t="str">
         <f>VLOOKUP($B14,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP($B14,'全件'!$A:$E,4,false)</f>
@@ -3222,7 +3341,7 @@
       </c>
       <c r="D15" s="5" t="str">
         <f>VLOOKUP($B15,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP($B15,'全件'!$A:$E,4,false)</f>
@@ -3268,7 +3387,7 @@
       </c>
       <c r="D17" s="5" t="str">
         <f>VLOOKUP($B17,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP($B17,'全件'!$A:$E,4,false)</f>
@@ -3360,7 +3479,7 @@
       </c>
       <c r="D21" s="5" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,4,false)</f>
@@ -3383,7 +3502,7 @@
       </c>
       <c r="D22" s="5" t="str">
         <f>VLOOKUP($B22,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP($B22,'全件'!$A:$E,4,false)</f>
@@ -3429,7 +3548,7 @@
       </c>
       <c r="D24" s="5" t="str">
         <f>VLOOKUP($B24,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP($B24,'全件'!$A:$E,4,false)</f>
@@ -3475,7 +3594,7 @@
       </c>
       <c r="D26" s="5" t="str">
         <f>VLOOKUP($B26,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP($B26,'全件'!$A:$E,4,false)</f>
@@ -3778,88 +3897,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="8">
         <v>20500.0</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="8">
         <v>30537.0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4">
+      <c r="C3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>11440.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>10538.0</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8">
         <v>10484.0</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>20507.0</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>10281.0</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>10287.0</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="8">
         <v>20105.0</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>10536.0</v>
       </c>
@@ -3867,15 +4020,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="8">
         <v>10948.0</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="8">
         <v>10955.0</v>
       </c>
@@ -3883,47 +4041,72 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="8">
         <v>10747.0</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="8">
         <v>11334.0</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="8">
         <v>20174.0</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="8">
         <v>20519.0</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="8">
         <v>20172.0</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>10947.0</v>
       </c>
@@ -3931,39 +4114,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="8">
         <v>11020.0</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="8">
         <v>20600.0</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8">
         <v>10545.0</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="C22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>20173.0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <v>20146.0</v>
       </c>
@@ -3971,7 +4176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10">
         <v>30564.0</v>
       </c>
@@ -3979,7 +4184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8">
         <v>11135.0</v>
       </c>
@@ -3987,7 +4192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8">
         <v>11184.0</v>
       </c>
@@ -3995,7 +4200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <v>10846.0</v>
       </c>
@@ -4003,7 +4208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <v>11110.0</v>
       </c>
@@ -4011,7 +4216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8">
         <v>11415.0</v>
       </c>
@@ -4019,7 +4224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8">
         <v>11497.0</v>
       </c>
@@ -4027,7 +4232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8">
         <v>10775.0</v>
       </c>
@@ -4035,7 +4240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="6">
         <v>30527.0</v>
       </c>
@@ -4389,8 +4594,13 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="6">
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>